--- a/Data/Master_Data/Andriy_Yarmolenko.xlsx
+++ b/Data/Master_Data/Andriy_Yarmolenko.xlsx
@@ -135,7 +135,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -489,7 +489,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM39"/>
+  <dimension ref="A1:AM30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -613,10 +613,10 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2">
-        <v>43324</v>
+        <v>43687</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -625,7 +625,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -637,7 +637,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -670,72 +670,63 @@
         <v>0</v>
       </c>
       <c r="T2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Z2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB2">
-        <v>12</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AF2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG2">
         <v>0</v>
       </c>
       <c r="AH2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="AJ2">
         <v>-3</v>
       </c>
       <c r="AK2">
-        <v>-310</v>
+        <v>-300</v>
       </c>
       <c r="AL2">
-        <v>-280</v>
+        <v>-270</v>
       </c>
       <c r="AM2">
-        <v>-160</v>
+        <v>-290</v>
       </c>
     </row>
     <row r="3" spans="1:39">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="2">
-        <v>43330</v>
+        <v>43694</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -744,7 +735,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -756,10 +747,10 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -780,7 +771,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -792,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="V3">
-        <v>12.3</v>
+        <v>1.3</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>1.4</v>
+        <v>0.2</v>
       </c>
       <c r="Y3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z3">
         <v>1</v>
       </c>
       <c r="AA3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AC3">
         <v>0</v>
@@ -822,69 +813,69 @@
         <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG3">
         <v>0</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
         <v>0</v>
       </c>
       <c r="AK3">
-        <v>20</v>
+        <v>-20</v>
       </c>
       <c r="AL3">
-        <v>-30</v>
+        <v>-70</v>
       </c>
       <c r="AM3">
-        <v>-20</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:39">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="2">
-        <v>43337</v>
+        <v>43701</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -896,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -911,28 +902,28 @@
         <v>1</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>12.2</v>
       </c>
       <c r="V4">
-        <v>0.7</v>
+        <v>22.8</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="Y4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="AC4">
         <v>0</v>
@@ -941,10 +932,10 @@
         <v>0</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AF4">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AG4">
         <v>0</v>
@@ -953,57 +944,57 @@
         <v>1</v>
       </c>
       <c r="AI4">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AJ4">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AK4">
-        <v>-150</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>-140</v>
+        <v>-90</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:39">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="2">
-        <v>43344</v>
+        <v>43708</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -1015,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -1024,75 +1015,75 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>5</v>
+        <v>33.4</v>
       </c>
       <c r="V5">
-        <v>13.4</v>
+        <v>24.3</v>
       </c>
       <c r="W5">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="X5">
-        <v>4.2</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="Y5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA5">
         <v>1</v>
       </c>
       <c r="AB5">
+        <v>14</v>
+      </c>
+      <c r="AC5">
+        <v>0.2</v>
+      </c>
+      <c r="AD5">
+        <v>0.2</v>
+      </c>
+      <c r="AE5">
+        <v>0.1</v>
+      </c>
+      <c r="AF5">
+        <v>22</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>8</v>
+      </c>
+      <c r="AI5">
+        <v>2</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
         <v>20</v>
       </c>
-      <c r="AC5">
-        <v>0.1</v>
-      </c>
-      <c r="AD5">
-        <v>0.1</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>3</v>
-      </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5">
-        <v>1</v>
-      </c>
-      <c r="AI5">
-        <v>-1</v>
-      </c>
-      <c r="AJ5">
-        <v>-2</v>
-      </c>
-      <c r="AK5">
-        <v>-150</v>
-      </c>
       <c r="AL5">
-        <v>-230</v>
+        <v>-40</v>
       </c>
       <c r="AM5">
-        <v>-170</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="2">
-        <v>43359</v>
+        <v>43724</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -1101,7 +1092,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1110,108 +1101,108 @@
         <v>2</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>2</v>
+      </c>
+      <c r="V6">
+        <v>12.8</v>
+      </c>
+      <c r="W6">
+        <v>21</v>
+      </c>
+      <c r="X6">
+        <v>3.6</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>2</v>
+      </c>
+      <c r="AC6">
+        <v>0.1</v>
+      </c>
+      <c r="AD6">
+        <v>0.1</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>6</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
         <v>3</v>
       </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>1</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>2</v>
-      </c>
-      <c r="T6">
-        <v>1</v>
-      </c>
-      <c r="U6">
-        <v>66</v>
-      </c>
-      <c r="V6">
-        <v>10.8</v>
-      </c>
-      <c r="W6">
-        <v>36</v>
-      </c>
-      <c r="X6">
-        <v>11.3</v>
-      </c>
-      <c r="Y6">
-        <v>3</v>
-      </c>
-      <c r="Z6">
-        <v>1</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>8</v>
-      </c>
-      <c r="AC6">
-        <v>0.6</v>
-      </c>
-      <c r="AD6">
-        <v>0.6</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>36</v>
-      </c>
-      <c r="AG6">
-        <v>2</v>
-      </c>
-      <c r="AH6">
-        <v>13</v>
-      </c>
       <c r="AI6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>-70</v>
+        <v>10</v>
       </c>
       <c r="AL6">
-        <v>-70</v>
+        <v>60</v>
       </c>
       <c r="AM6">
-        <v>-20</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:39">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="2">
-        <v>43366</v>
+        <v>43730</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -1220,28 +1211,28 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7">
         <v>1</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -1253,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -1262,34 +1253,34 @@
         <v>0</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7">
         <v>0</v>
       </c>
       <c r="U7">
-        <v>5</v>
+        <v>47.2</v>
       </c>
       <c r="V7">
-        <v>24.2</v>
+        <v>14.8</v>
       </c>
       <c r="W7">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="X7">
-        <v>3.8</v>
+        <v>10.9</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA7">
         <v>1</v>
       </c>
       <c r="AB7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AC7">
         <v>0.2</v>
@@ -1298,39 +1289,39 @@
         <v>0.2</v>
       </c>
       <c r="AE7">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="AF7">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH7">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ7">
         <v>-2</v>
       </c>
       <c r="AK7">
-        <v>-190</v>
+        <v>-260</v>
       </c>
       <c r="AL7">
-        <v>-240</v>
+        <v>-330</v>
       </c>
       <c r="AM7">
-        <v>-220</v>
+        <v>-230</v>
       </c>
     </row>
     <row r="8" spans="1:39">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="2">
-        <v>43372</v>
+        <v>43736</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -1339,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1348,67 +1339,67 @@
         <v>2</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>4</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>2</v>
+      </c>
+      <c r="U8">
+        <v>44.4</v>
+      </c>
+      <c r="V8">
+        <v>29.3</v>
+      </c>
+      <c r="W8">
+        <v>27</v>
+      </c>
+      <c r="X8">
+        <v>10.1</v>
+      </c>
+      <c r="Y8">
+        <v>2</v>
+      </c>
+      <c r="Z8">
+        <v>2</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
         <v>3</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>1</v>
-      </c>
-      <c r="U8">
-        <v>0.2</v>
-      </c>
-      <c r="V8">
-        <v>5.1</v>
-      </c>
-      <c r="W8">
-        <v>14</v>
-      </c>
-      <c r="X8">
-        <v>1.9</v>
-      </c>
-      <c r="Y8">
-        <v>1</v>
-      </c>
-      <c r="Z8">
-        <v>3</v>
-      </c>
-      <c r="AA8">
-        <v>1</v>
-      </c>
-      <c r="AB8">
-        <v>14</v>
       </c>
       <c r="AC8">
         <v>0.1</v>
@@ -1417,39 +1408,39 @@
         <v>0.1</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AF8">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="AG8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH8">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AI8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ8">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AK8">
-        <v>-260</v>
+        <v>10</v>
       </c>
       <c r="AL8">
-        <v>-330</v>
+        <v>40</v>
       </c>
       <c r="AM8">
-        <v>-230</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="2">
-        <v>43378</v>
+        <v>43743</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -1458,19 +1449,19 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -1479,7 +1470,7 @@
         <v>1</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -1494,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -1506,37 +1497,37 @@
         <v>1</v>
       </c>
       <c r="U9">
-        <v>4.8</v>
+        <v>5.4</v>
       </c>
       <c r="V9">
-        <v>5.4</v>
+        <v>18.6</v>
       </c>
       <c r="W9">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="X9">
-        <v>4.3</v>
+        <v>2.6</v>
       </c>
       <c r="Y9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z9">
         <v>1</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB9">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AC9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AD9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AF9">
         <v>10</v>
@@ -1545,48 +1536,48 @@
         <v>0</v>
       </c>
       <c r="AH9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI9">
         <v>-1</v>
       </c>
       <c r="AJ9">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AK9">
-        <v>-20</v>
+        <v>-80</v>
       </c>
       <c r="AL9">
-        <v>-70</v>
+        <v>-180</v>
       </c>
       <c r="AM9">
-        <v>110</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="2">
-        <v>43393</v>
+        <v>43757</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -1622,43 +1613,43 @@
         <v>0</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U10">
-        <v>2.4</v>
+        <v>7.6</v>
       </c>
       <c r="V10">
-        <v>11.9</v>
+        <v>14.8</v>
       </c>
       <c r="W10">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="X10">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="Y10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB10">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AE10">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AF10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AG10">
         <v>0</v>
@@ -1667,48 +1658,48 @@
         <v>1</v>
       </c>
       <c r="AI10">
+        <v>-2</v>
+      </c>
+      <c r="AJ10">
         <v>-1</v>
       </c>
-      <c r="AJ10">
-        <v>-2</v>
-      </c>
       <c r="AK10">
-        <v>-200</v>
+        <v>-70</v>
       </c>
       <c r="AL10">
-        <v>-130</v>
+        <v>-70</v>
       </c>
       <c r="AM10">
-        <v>-110</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="2">
-        <v>43400</v>
+        <v>43764</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1717,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1741,19 +1732,19 @@
         <v>0</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>24.4</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>48.6</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>10.9</v>
       </c>
       <c r="Y11">
         <v>1</v>
@@ -1762,19 +1753,28 @@
         <v>1</v>
       </c>
       <c r="AA11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB11">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="AC11">
+        <v>0.3</v>
+      </c>
+      <c r="AD11">
+        <v>0.3</v>
+      </c>
+      <c r="AE11">
+        <v>1</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AG11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH11">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AI11">
         <v>0</v>
@@ -1783,30 +1783,30 @@
         <v>-1</v>
       </c>
       <c r="AK11">
+        <v>-160</v>
+      </c>
+      <c r="AL11">
         <v>-180</v>
       </c>
-      <c r="AL11">
-        <v>-120</v>
-      </c>
       <c r="AM11">
-        <v>-60</v>
+        <v>-80</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="2">
-        <v>43407</v>
+        <v>43771</v>
       </c>
       <c r="C12">
         <v>11</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1818,13 +1818,13 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1851,13 +1851,13 @@
         <v>0</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U12">
         <v>0</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="W12">
         <v>0</v>
@@ -1866,48 +1866,57 @@
         <v>0</v>
       </c>
       <c r="Y12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AA12">
         <v>1</v>
       </c>
       <c r="AB12">
-        <v>4</v>
+        <v>13</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
       </c>
       <c r="AF12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG12">
         <v>0</v>
       </c>
       <c r="AH12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI12">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AJ12">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AK12">
-        <v>-140</v>
+        <v>-60</v>
       </c>
       <c r="AL12">
-        <v>-70</v>
+        <v>-40</v>
       </c>
       <c r="AM12">
-        <v>-80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:39">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="2">
-        <v>43414</v>
+        <v>43778</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -1916,28 +1925,28 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -1949,7 +1958,7 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -1961,31 +1970,40 @@
         <v>0</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>10.4</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="W13">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="X13">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Y13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA13">
         <v>0</v>
       </c>
       <c r="AB13">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="AC13">
+        <v>0.2</v>
+      </c>
+      <c r="AD13">
+        <v>0.2</v>
+      </c>
+      <c r="AE13">
+        <v>0.1</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -1994,39 +2012,39 @@
         <v>0</v>
       </c>
       <c r="AH13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI13">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AJ13">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AK13">
-        <v>40</v>
+        <v>-80</v>
       </c>
       <c r="AL13">
-        <v>-10</v>
+        <v>-100</v>
       </c>
       <c r="AM13">
-        <v>170</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="A14" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="2">
-        <v>43428</v>
+        <v>43792</v>
       </c>
       <c r="C14">
         <v>13</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -2044,7 +2062,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -2071,63 +2089,72 @@
         <v>0</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U14">
         <v>0</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
       <c r="X14">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="Y14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA14">
         <v>1</v>
       </c>
       <c r="AB14">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
       </c>
       <c r="AF14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG14">
         <v>0</v>
       </c>
       <c r="AH14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI14">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="AJ14">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AK14">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="AL14">
-        <v>-270</v>
+        <v>-130</v>
       </c>
       <c r="AM14">
-        <v>-290</v>
+        <v>-110</v>
       </c>
     </row>
     <row r="15" spans="1:39">
       <c r="A15" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="2">
-        <v>43435</v>
+        <v>43799</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -2136,7 +2163,7 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -2151,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -2172,7 +2199,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -2184,19 +2211,19 @@
         <v>0</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X15">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="Y15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z15">
         <v>0</v>
@@ -2205,10 +2232,19 @@
         <v>0</v>
       </c>
       <c r="AB15">
-        <v>15</v>
+        <v>6</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
       </c>
       <c r="AF15">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG15">
         <v>0</v>
@@ -2217,27 +2253,27 @@
         <v>0</v>
       </c>
       <c r="AI15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ15">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AK15">
-        <v>-60</v>
+        <v>-190</v>
       </c>
       <c r="AL15">
-        <v>0</v>
+        <v>-210</v>
       </c>
       <c r="AM15">
-        <v>170</v>
+        <v>-70</v>
       </c>
     </row>
     <row r="16" spans="1:39">
       <c r="A16" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="2">
-        <v>43438</v>
+        <v>43803</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -2246,13 +2282,13 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -2291,63 +2327,72 @@
         <v>0</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="W16">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="X16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z16">
+        <v>2</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>20</v>
+      </c>
+      <c r="AC16">
+        <v>0.1</v>
+      </c>
+      <c r="AD16">
+        <v>0.1</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
         <v>3</v>
       </c>
-      <c r="AA16">
-        <v>1</v>
-      </c>
-      <c r="AB16">
-        <v>5</v>
-      </c>
-      <c r="AF16">
-        <v>0</v>
-      </c>
       <c r="AG16">
         <v>0</v>
       </c>
       <c r="AH16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI16">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AJ16">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AK16">
-        <v>40</v>
+        <v>-200</v>
       </c>
       <c r="AL16">
-        <v>-90</v>
+        <v>-150</v>
       </c>
       <c r="AM16">
-        <v>10</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="17" spans="1:39">
       <c r="A17" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2">
-        <v>43442</v>
+        <v>43808</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -2416,16 +2461,16 @@
         <v>0</v>
       </c>
       <c r="Y17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA17">
         <v>1</v>
       </c>
       <c r="AB17">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -2437,27 +2482,27 @@
         <v>0</v>
       </c>
       <c r="AI17">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AJ17">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AK17">
-        <v>-80</v>
+        <v>-200</v>
       </c>
       <c r="AL17">
-        <v>-180</v>
+        <v>-170</v>
       </c>
       <c r="AM17">
-        <v>-10</v>
+        <v>-170</v>
       </c>
     </row>
     <row r="18" spans="1:39">
       <c r="A18" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B18" s="2">
-        <v>43449</v>
+        <v>43813</v>
       </c>
       <c r="C18">
         <v>17</v>
@@ -2466,13 +2511,13 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -2481,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2517,16 +2562,16 @@
         <v>0</v>
       </c>
       <c r="V18">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="W18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X18">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="Y18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z18">
         <v>0</v>
@@ -2535,7 +2580,16 @@
         <v>0</v>
       </c>
       <c r="AB18">
-        <v>9</v>
+        <v>16</v>
+      </c>
+      <c r="AC18">
+        <v>0.2</v>
+      </c>
+      <c r="AD18">
+        <v>0.2</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -2544,22 +2598,22 @@
         <v>0</v>
       </c>
       <c r="AH18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ18">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AK18">
-        <v>10</v>
+        <v>-120</v>
       </c>
       <c r="AL18">
-        <v>-40</v>
+        <v>-50</v>
       </c>
       <c r="AM18">
-        <v>140</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:39">
@@ -2567,10 +2621,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="2">
-        <v>43456</v>
+        <v>43825</v>
       </c>
       <c r="C19">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -2636,16 +2690,16 @@
         <v>0</v>
       </c>
       <c r="Y19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB19">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -2657,7 +2711,7 @@
         <v>0</v>
       </c>
       <c r="AI19">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AJ19">
         <v>-1</v>
@@ -2666,10 +2720,10 @@
         <v>-100</v>
       </c>
       <c r="AL19">
-        <v>-120</v>
+        <v>-50</v>
       </c>
       <c r="AM19">
-        <v>-120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:39">
@@ -2677,10 +2731,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="2">
-        <v>43461</v>
+        <v>43827</v>
       </c>
       <c r="C20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -2752,10 +2806,10 @@
         <v>1</v>
       </c>
       <c r="AA20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB20">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -2767,7 +2821,7 @@
         <v>0</v>
       </c>
       <c r="AI20">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AJ20">
         <v>-1</v>
@@ -2776,10 +2830,10 @@
         <v>-120</v>
       </c>
       <c r="AL20">
-        <v>-50</v>
+        <v>-80</v>
       </c>
       <c r="AM20">
-        <v>40</v>
+        <v>-70</v>
       </c>
     </row>
     <row r="21" spans="1:39">
@@ -2787,109 +2841,109 @@
         <v>19</v>
       </c>
       <c r="B21" s="2">
-        <v>43464</v>
+        <v>43831</v>
       </c>
       <c r="C21">
+        <v>21</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>4</v>
+      </c>
+      <c r="AA21">
+        <v>1</v>
+      </c>
+      <c r="AB21">
+        <v>3</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>4</v>
+      </c>
+      <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
         <v>20</v>
       </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-      <c r="X21">
-        <v>0</v>
-      </c>
-      <c r="Y21">
-        <v>0</v>
-      </c>
-      <c r="Z21">
-        <v>2</v>
-      </c>
-      <c r="AA21">
-        <v>0</v>
-      </c>
-      <c r="AB21">
-        <v>4</v>
-      </c>
-      <c r="AF21">
-        <v>0</v>
-      </c>
-      <c r="AG21">
-        <v>0</v>
-      </c>
-      <c r="AH21">
-        <v>0</v>
-      </c>
-      <c r="AI21">
-        <v>-2</v>
-      </c>
-      <c r="AJ21">
-        <v>-2</v>
-      </c>
-      <c r="AK21">
-        <v>-80</v>
-      </c>
       <c r="AL21">
-        <v>-100</v>
+        <v>-30</v>
       </c>
       <c r="AM21">
-        <v>180</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="22" spans="1:39">
@@ -2897,10 +2951,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="2">
-        <v>43467</v>
+        <v>43840</v>
       </c>
       <c r="C22">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -2966,16 +3020,16 @@
         <v>0</v>
       </c>
       <c r="Y22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB22">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -2987,19 +3041,19 @@
         <v>0</v>
       </c>
       <c r="AI22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AJ22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AK22">
-        <v>30</v>
+        <v>-150</v>
       </c>
       <c r="AL22">
-        <v>-100</v>
+        <v>-140</v>
       </c>
       <c r="AM22">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:39">
@@ -3007,10 +3061,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="2">
-        <v>43477</v>
+        <v>43848</v>
       </c>
       <c r="C23">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -3076,7 +3130,7 @@
         <v>0</v>
       </c>
       <c r="Y23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z23">
         <v>1</v>
@@ -3085,7 +3139,7 @@
         <v>1</v>
       </c>
       <c r="AB23">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -3097,19 +3151,19 @@
         <v>0</v>
       </c>
       <c r="AI23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ23">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AK23">
         <v>-200</v>
       </c>
       <c r="AL23">
-        <v>-170</v>
+        <v>-210</v>
       </c>
       <c r="AM23">
-        <v>-170</v>
+        <v>-150</v>
       </c>
     </row>
     <row r="24" spans="1:39">
@@ -3117,10 +3171,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="2">
-        <v>43484</v>
+        <v>43852</v>
       </c>
       <c r="C24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -3186,16 +3240,16 @@
         <v>0</v>
       </c>
       <c r="Y24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AA24">
         <v>0</v>
       </c>
       <c r="AB24">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -3207,19 +3261,19 @@
         <v>0</v>
       </c>
       <c r="AI24">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="AJ24">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AK24">
-        <v>10</v>
+        <v>-180</v>
       </c>
       <c r="AL24">
-        <v>40</v>
+        <v>-120</v>
       </c>
       <c r="AM24">
-        <v>150</v>
+        <v>-60</v>
       </c>
     </row>
     <row r="25" spans="1:39">
@@ -3227,7 +3281,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="2">
-        <v>43494</v>
+        <v>43859</v>
       </c>
       <c r="C25">
         <v>24</v>
@@ -3296,16 +3350,16 @@
         <v>0</v>
       </c>
       <c r="Y25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z25">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB25">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -3317,19 +3371,19 @@
         <v>0</v>
       </c>
       <c r="AI25">
+        <v>-2</v>
+      </c>
+      <c r="AJ25">
         <v>-3</v>
       </c>
-      <c r="AJ25">
-        <v>-2</v>
-      </c>
       <c r="AK25">
-        <v>-200</v>
+        <v>-310</v>
       </c>
       <c r="AL25">
-        <v>-150</v>
+        <v>-320</v>
       </c>
       <c r="AM25">
-        <v>-50</v>
+        <v>-300</v>
       </c>
     </row>
     <row r="26" spans="1:39">
@@ -3337,7 +3391,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="2">
-        <v>43500</v>
+        <v>43862</v>
       </c>
       <c r="C26">
         <v>25</v>
@@ -3406,16 +3460,16 @@
         <v>0</v>
       </c>
       <c r="Y26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA26">
         <v>1</v>
       </c>
       <c r="AB26">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -3430,16 +3484,16 @@
         <v>0</v>
       </c>
       <c r="AJ26">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AK26">
-        <v>-310</v>
+        <v>30</v>
       </c>
       <c r="AL26">
-        <v>-320</v>
+        <v>-100</v>
       </c>
       <c r="AM26">
-        <v>-300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:39">
@@ -3447,7 +3501,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="2">
-        <v>43505</v>
+        <v>43880</v>
       </c>
       <c r="C27">
         <v>26</v>
@@ -3516,16 +3570,16 @@
         <v>0</v>
       </c>
       <c r="Y27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA27">
         <v>0</v>
       </c>
       <c r="AB27">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -3537,19 +3591,19 @@
         <v>0</v>
       </c>
       <c r="AI27">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AJ27">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AK27">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="AL27">
-        <v>-50</v>
+        <v>-230</v>
       </c>
       <c r="AM27">
-        <v>110</v>
+        <v>-170</v>
       </c>
     </row>
     <row r="28" spans="1:39">
@@ -3557,7 +3611,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="2">
-        <v>43518</v>
+        <v>43885</v>
       </c>
       <c r="C28">
         <v>27</v>
@@ -3626,16 +3680,16 @@
         <v>0</v>
       </c>
       <c r="Y28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z28">
         <v>3</v>
       </c>
       <c r="AA28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB28">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -3647,19 +3701,19 @@
         <v>0</v>
       </c>
       <c r="AI28">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AJ28">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="AK28">
-        <v>60</v>
+        <v>-310</v>
       </c>
       <c r="AL28">
-        <v>-70</v>
+        <v>-280</v>
       </c>
       <c r="AM28">
-        <v>30</v>
+        <v>-160</v>
       </c>
     </row>
     <row r="29" spans="1:39">
@@ -3667,7 +3721,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="2">
-        <v>43523</v>
+        <v>43890</v>
       </c>
       <c r="C29">
         <v>28</v>
@@ -3736,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="Y29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB29">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -3757,19 +3811,19 @@
         <v>0</v>
       </c>
       <c r="AI29">
+        <v>2</v>
+      </c>
+      <c r="AJ29">
         <v>-1</v>
       </c>
-      <c r="AJ29">
-        <v>-3</v>
-      </c>
       <c r="AK29">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="AL29">
-        <v>-230</v>
+        <v>-50</v>
       </c>
       <c r="AM29">
-        <v>-170</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="30" spans="1:39">
@@ -3777,7 +3831,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="2">
-        <v>43526</v>
+        <v>43897</v>
       </c>
       <c r="C30">
         <v>29</v>
@@ -3849,13 +3903,13 @@
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB30">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -3867,1009 +3921,19 @@
         <v>0</v>
       </c>
       <c r="AI30">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AJ30">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AK30">
-        <v>-60</v>
+        <v>-150</v>
       </c>
       <c r="AL30">
-        <v>-40</v>
+        <v>-140</v>
       </c>
       <c r="AM30">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:39">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31" s="2">
-        <v>43533</v>
-      </c>
-      <c r="C31">
-        <v>30</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="N31">
-        <v>0</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>0</v>
-      </c>
-      <c r="R31">
-        <v>0</v>
-      </c>
-      <c r="S31">
-        <v>0</v>
-      </c>
-      <c r="T31">
-        <v>0</v>
-      </c>
-      <c r="U31">
-        <v>0</v>
-      </c>
-      <c r="V31">
-        <v>0</v>
-      </c>
-      <c r="W31">
-        <v>0</v>
-      </c>
-      <c r="X31">
-        <v>0</v>
-      </c>
-      <c r="Y31">
-        <v>0</v>
-      </c>
-      <c r="Z31">
-        <v>2</v>
-      </c>
-      <c r="AA31">
-        <v>0</v>
-      </c>
-      <c r="AB31">
-        <v>5</v>
-      </c>
-      <c r="AF31">
-        <v>0</v>
-      </c>
-      <c r="AG31">
-        <v>0</v>
-      </c>
-      <c r="AH31">
-        <v>0</v>
-      </c>
-      <c r="AI31">
-        <v>-2</v>
-      </c>
-      <c r="AJ31">
-        <v>1</v>
-      </c>
-      <c r="AK31">
-        <v>-10</v>
-      </c>
-      <c r="AL31">
-        <v>-60</v>
-      </c>
-      <c r="AM31">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="32" spans="1:39">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32" s="2">
-        <v>43540</v>
-      </c>
-      <c r="C32">
-        <v>31</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-      <c r="N32">
-        <v>0</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-      <c r="R32">
-        <v>0</v>
-      </c>
-      <c r="S32">
-        <v>0</v>
-      </c>
-      <c r="T32">
-        <v>0</v>
-      </c>
-      <c r="U32">
-        <v>0</v>
-      </c>
-      <c r="V32">
-        <v>0</v>
-      </c>
-      <c r="W32">
-        <v>0</v>
-      </c>
-      <c r="X32">
-        <v>0</v>
-      </c>
-      <c r="Y32">
-        <v>3</v>
-      </c>
-      <c r="Z32">
-        <v>4</v>
-      </c>
-      <c r="AA32">
-        <v>1</v>
-      </c>
-      <c r="AB32">
-        <v>10</v>
-      </c>
-      <c r="AF32">
-        <v>0</v>
-      </c>
-      <c r="AG32">
-        <v>0</v>
-      </c>
-      <c r="AH32">
-        <v>0</v>
-      </c>
-      <c r="AI32">
-        <v>1</v>
-      </c>
-      <c r="AJ32">
-        <v>1</v>
-      </c>
-      <c r="AK32">
-        <v>90</v>
-      </c>
-      <c r="AL32">
-        <v>-40</v>
-      </c>
-      <c r="AM32">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="1:39">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33" s="2">
-        <v>43554</v>
-      </c>
-      <c r="C33">
-        <v>32</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-      <c r="N33">
-        <v>0</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>0</v>
-      </c>
-      <c r="R33">
-        <v>0</v>
-      </c>
-      <c r="S33">
-        <v>0</v>
-      </c>
-      <c r="T33">
-        <v>0</v>
-      </c>
-      <c r="U33">
-        <v>0</v>
-      </c>
-      <c r="V33">
-        <v>0</v>
-      </c>
-      <c r="W33">
-        <v>0</v>
-      </c>
-      <c r="X33">
-        <v>0</v>
-      </c>
-      <c r="Y33">
-        <v>2</v>
-      </c>
-      <c r="Z33">
-        <v>0</v>
-      </c>
-      <c r="AA33">
-        <v>1</v>
-      </c>
-      <c r="AB33">
-        <v>8</v>
-      </c>
-      <c r="AF33">
-        <v>0</v>
-      </c>
-      <c r="AG33">
-        <v>0</v>
-      </c>
-      <c r="AH33">
-        <v>0</v>
-      </c>
-      <c r="AI33">
-        <v>-2</v>
-      </c>
-      <c r="AJ33">
-        <v>-1</v>
-      </c>
-      <c r="AK33">
-        <v>-200</v>
-      </c>
-      <c r="AL33">
-        <v>-210</v>
-      </c>
-      <c r="AM33">
-        <v>-150</v>
-      </c>
-    </row>
-    <row r="34" spans="1:39">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="B34" s="2">
-        <v>43563</v>
-      </c>
-      <c r="C34">
-        <v>33</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-      <c r="N34">
-        <v>0</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>0</v>
-      </c>
-      <c r="R34">
-        <v>0</v>
-      </c>
-      <c r="S34">
-        <v>0</v>
-      </c>
-      <c r="T34">
-        <v>0</v>
-      </c>
-      <c r="U34">
-        <v>0</v>
-      </c>
-      <c r="V34">
-        <v>0</v>
-      </c>
-      <c r="W34">
-        <v>0</v>
-      </c>
-      <c r="X34">
-        <v>0</v>
-      </c>
-      <c r="Y34">
-        <v>0</v>
-      </c>
-      <c r="Z34">
-        <v>2</v>
-      </c>
-      <c r="AA34">
-        <v>0</v>
-      </c>
-      <c r="AB34">
-        <v>6</v>
-      </c>
-      <c r="AF34">
-        <v>0</v>
-      </c>
-      <c r="AG34">
-        <v>0</v>
-      </c>
-      <c r="AH34">
-        <v>0</v>
-      </c>
-      <c r="AI34">
-        <v>-2</v>
-      </c>
-      <c r="AJ34">
-        <v>-2</v>
-      </c>
-      <c r="AK34">
-        <v>-190</v>
-      </c>
-      <c r="AL34">
-        <v>-210</v>
-      </c>
-      <c r="AM34">
-        <v>-70</v>
-      </c>
-    </row>
-    <row r="35" spans="1:39">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="B35" s="2">
-        <v>43568</v>
-      </c>
-      <c r="C35">
-        <v>34</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="N35">
-        <v>0</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>0</v>
-      </c>
-      <c r="R35">
-        <v>0</v>
-      </c>
-      <c r="S35">
-        <v>0</v>
-      </c>
-      <c r="T35">
-        <v>0</v>
-      </c>
-      <c r="U35">
-        <v>0</v>
-      </c>
-      <c r="V35">
-        <v>0</v>
-      </c>
-      <c r="W35">
-        <v>0</v>
-      </c>
-      <c r="X35">
-        <v>0</v>
-      </c>
-      <c r="Y35">
-        <v>1</v>
-      </c>
-      <c r="Z35">
-        <v>2</v>
-      </c>
-      <c r="AA35">
-        <v>0</v>
-      </c>
-      <c r="AB35">
-        <v>14</v>
-      </c>
-      <c r="AF35">
-        <v>0</v>
-      </c>
-      <c r="AG35">
-        <v>0</v>
-      </c>
-      <c r="AH35">
-        <v>0</v>
-      </c>
-      <c r="AI35">
-        <v>-1</v>
-      </c>
-      <c r="AJ35">
-        <v>-2</v>
-      </c>
-      <c r="AK35">
-        <v>-190</v>
-      </c>
-      <c r="AL35">
-        <v>-230</v>
-      </c>
-      <c r="AM35">
-        <v>-30</v>
-      </c>
-    </row>
-    <row r="36" spans="1:39">
-      <c r="A36" s="1">
-        <v>34</v>
-      </c>
-      <c r="B36" s="2">
-        <v>43575</v>
-      </c>
-      <c r="C36">
-        <v>35</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
-      <c r="N36">
-        <v>0</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>0</v>
-      </c>
-      <c r="R36">
-        <v>0</v>
-      </c>
-      <c r="S36">
-        <v>0</v>
-      </c>
-      <c r="T36">
-        <v>0</v>
-      </c>
-      <c r="U36">
-        <v>0</v>
-      </c>
-      <c r="V36">
-        <v>0</v>
-      </c>
-      <c r="W36">
-        <v>0</v>
-      </c>
-      <c r="X36">
-        <v>0</v>
-      </c>
-      <c r="Y36">
-        <v>2</v>
-      </c>
-      <c r="Z36">
-        <v>2</v>
-      </c>
-      <c r="AA36">
-        <v>1</v>
-      </c>
-      <c r="AB36">
-        <v>11</v>
-      </c>
-      <c r="AF36">
-        <v>0</v>
-      </c>
-      <c r="AG36">
-        <v>0</v>
-      </c>
-      <c r="AH36">
-        <v>0</v>
-      </c>
-      <c r="AI36">
-        <v>0</v>
-      </c>
-      <c r="AJ36">
-        <v>-1</v>
-      </c>
-      <c r="AK36">
-        <v>-120</v>
-      </c>
-      <c r="AL36">
-        <v>-80</v>
-      </c>
-      <c r="AM36">
-        <v>-70</v>
-      </c>
-    </row>
-    <row r="37" spans="1:39">
-      <c r="A37" s="1">
-        <v>35</v>
-      </c>
-      <c r="B37" s="2">
-        <v>43582</v>
-      </c>
-      <c r="C37">
-        <v>36</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-      <c r="N37">
-        <v>0</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>0</v>
-      </c>
-      <c r="R37">
-        <v>0</v>
-      </c>
-      <c r="S37">
-        <v>0</v>
-      </c>
-      <c r="T37">
-        <v>0</v>
-      </c>
-      <c r="U37">
-        <v>0</v>
-      </c>
-      <c r="V37">
-        <v>0</v>
-      </c>
-      <c r="W37">
-        <v>0</v>
-      </c>
-      <c r="X37">
-        <v>0</v>
-      </c>
-      <c r="Y37">
-        <v>1</v>
-      </c>
-      <c r="Z37">
-        <v>0</v>
-      </c>
-      <c r="AA37">
-        <v>0</v>
-      </c>
-      <c r="AB37">
-        <v>17</v>
-      </c>
-      <c r="AF37">
-        <v>0</v>
-      </c>
-      <c r="AG37">
-        <v>0</v>
-      </c>
-      <c r="AH37">
-        <v>0</v>
-      </c>
-      <c r="AI37">
-        <v>1</v>
-      </c>
-      <c r="AJ37">
-        <v>-2</v>
-      </c>
-      <c r="AK37">
-        <v>-150</v>
-      </c>
-      <c r="AL37">
-        <v>-70</v>
-      </c>
-      <c r="AM37">
-        <v>-50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:39">
-      <c r="A38" s="1">
-        <v>36</v>
-      </c>
-      <c r="B38" s="2">
-        <v>43589</v>
-      </c>
-      <c r="C38">
-        <v>37</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-      <c r="N38">
-        <v>0</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>0</v>
-      </c>
-      <c r="R38">
-        <v>0</v>
-      </c>
-      <c r="S38">
-        <v>0</v>
-      </c>
-      <c r="T38">
-        <v>0</v>
-      </c>
-      <c r="U38">
-        <v>0</v>
-      </c>
-      <c r="V38">
-        <v>0</v>
-      </c>
-      <c r="W38">
-        <v>0</v>
-      </c>
-      <c r="X38">
-        <v>0</v>
-      </c>
-      <c r="Y38">
-        <v>0</v>
-      </c>
-      <c r="Z38">
-        <v>3</v>
-      </c>
-      <c r="AA38">
-        <v>1</v>
-      </c>
-      <c r="AB38">
-        <v>16</v>
-      </c>
-      <c r="AF38">
-        <v>0</v>
-      </c>
-      <c r="AG38">
-        <v>0</v>
-      </c>
-      <c r="AH38">
-        <v>0</v>
-      </c>
-      <c r="AI38">
-        <v>3</v>
-      </c>
-      <c r="AJ38">
-        <v>-1</v>
-      </c>
-      <c r="AK38">
-        <v>0</v>
-      </c>
-      <c r="AL38">
-        <v>-50</v>
-      </c>
-      <c r="AM38">
-        <v>-50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:39">
-      <c r="A39" s="1">
-        <v>37</v>
-      </c>
-      <c r="B39" s="2">
-        <v>43597</v>
-      </c>
-      <c r="C39">
-        <v>38</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-      <c r="N39">
-        <v>0</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>0</v>
-      </c>
-      <c r="R39">
-        <v>0</v>
-      </c>
-      <c r="S39">
-        <v>0</v>
-      </c>
-      <c r="T39">
-        <v>0</v>
-      </c>
-      <c r="U39">
-        <v>0</v>
-      </c>
-      <c r="V39">
-        <v>0</v>
-      </c>
-      <c r="W39">
-        <v>0</v>
-      </c>
-      <c r="X39">
-        <v>0</v>
-      </c>
-      <c r="Y39">
-        <v>4</v>
-      </c>
-      <c r="Z39">
-        <v>1</v>
-      </c>
-      <c r="AA39">
-        <v>0</v>
-      </c>
-      <c r="AB39">
-        <v>18</v>
-      </c>
-      <c r="AF39">
-        <v>0</v>
-      </c>
-      <c r="AG39">
-        <v>0</v>
-      </c>
-      <c r="AH39">
-        <v>0</v>
-      </c>
-      <c r="AI39">
-        <v>3</v>
-      </c>
-      <c r="AJ39">
-        <v>-1</v>
-      </c>
-      <c r="AK39">
-        <v>0</v>
-      </c>
-      <c r="AL39">
-        <v>-90</v>
-      </c>
-      <c r="AM39">
-        <v>130</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
